--- a/Project/مشتريات ضريبية.xlsx
+++ b/Project/مشتريات ضريبية.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ضريبة ابوريان\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58097BE6-CD41-4178-9D46-387473BAA717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7199CAA5-572F-48D7-A502-D1FF208EEE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04EA4AE3-DA5A-4282-A31E-3D3CBEDE613D}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="ورقة2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="25">
   <si>
     <t>رقم الفاتورة</t>
   </si>
@@ -89,6 +90,27 @@
   <si>
     <t>شركة تخير الغذاء للتجارة</t>
   </si>
+  <si>
+    <t xml:space="preserve">مؤسسة  بدر علي ربيع </t>
+  </si>
+  <si>
+    <t>مؤسسة الليزر</t>
+  </si>
+  <si>
+    <t>مؤسسة منصور مجرشي لتجارة الجملة والتجزئة</t>
+  </si>
+  <si>
+    <t>التاريخ</t>
+  </si>
+  <si>
+    <t>اجمالي الشبكة</t>
+  </si>
+  <si>
+    <t>شركة تزود المحدودة</t>
+  </si>
+  <si>
+    <t>Tashelat Marketing Co</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,12 +171,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -163,6 +196,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="إخراج" xfId="1" builtinId="21"/>
@@ -478,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F70E98-9223-46B0-825D-D461DFD05E6C}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="24.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="7" customWidth="1"/>
     <col min="4" max="4" width="19.625" style="5" customWidth="1"/>
@@ -542,8 +576,8 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <f>SUM(E2:E49)</f>
-        <v>8844.02</v>
+        <f>SUM(E2:E128)</f>
+        <v>54976.810000000005</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -563,7 +597,7 @@
         <v>81.12</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F73" si="0">E3/1.15</f>
+        <f t="shared" ref="F3:F127" si="0">E3/1.15</f>
         <v>70.539130434782621</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2253,58 +2287,1443 @@
         <v>17</v>
       </c>
       <c r="B74" s="4">
-        <v>520884</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
+        <v>469560</v>
+      </c>
+      <c r="C74" s="6">
+        <v>45547</v>
+      </c>
+      <c r="D74" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E74" s="1">
+        <v>661</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="0"/>
+        <v>574.78260869565224</v>
+      </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="2"/>
+      <c r="A75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="4">
+        <v>2111</v>
+      </c>
+      <c r="C75" s="6">
+        <v>45495</v>
+      </c>
+      <c r="D75" s="4">
+        <v>310182071500003</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1009.08</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="0"/>
+        <v>877.46086956521754</v>
+      </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="2"/>
+      <c r="A76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="4">
+        <v>393172</v>
+      </c>
+      <c r="C76" s="6">
+        <v>45510</v>
+      </c>
+      <c r="D76" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E76" s="1">
+        <v>248</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="0"/>
+        <v>215.6521739130435</v>
+      </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="2"/>
+      <c r="A77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="4">
+        <v>350329</v>
+      </c>
+      <c r="C77" s="6">
+        <v>45487</v>
+      </c>
+      <c r="D77" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E77" s="1">
+        <v>230</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="0"/>
+        <v>200.00000000000003</v>
+      </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
+      <c r="A78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="4">
+        <v>395638</v>
+      </c>
+      <c r="C78" s="6">
+        <v>45510</v>
+      </c>
+      <c r="D78" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E78" s="1">
+        <v>6291</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="0"/>
+        <v>5470.434782608696</v>
+      </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="2"/>
+      <c r="A79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="4">
+        <v>420687</v>
+      </c>
+      <c r="C79" s="6">
+        <v>45523</v>
+      </c>
+      <c r="D79" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E79" s="1">
+        <v>398</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="0"/>
+        <v>346.08695652173918</v>
+      </c>
       <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="4">
+        <v>405889</v>
+      </c>
+      <c r="C80" s="6">
+        <v>45516</v>
+      </c>
+      <c r="D80" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E80" s="1">
+        <v>110</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="0"/>
+        <v>95.652173913043484</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="4">
+        <v>332860</v>
+      </c>
+      <c r="C81" s="6">
+        <v>45480</v>
+      </c>
+      <c r="D81" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E81" s="1">
+        <v>656</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="0"/>
+        <v>570.43478260869574</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="4">
+        <v>355054</v>
+      </c>
+      <c r="C82" s="6">
+        <v>45490</v>
+      </c>
+      <c r="D82" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2824</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="0"/>
+        <v>2455.6521739130435</v>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="4">
+        <v>338552</v>
+      </c>
+      <c r="C83" s="6">
+        <v>45481</v>
+      </c>
+      <c r="D83" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2666</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="0"/>
+        <v>2318.2608695652175</v>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="4">
+        <v>364559</v>
+      </c>
+      <c r="C84" s="6">
+        <v>45495</v>
+      </c>
+      <c r="D84" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E84" s="1">
+        <v>122</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="0"/>
+        <v>106.08695652173914</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="4">
+        <v>391062</v>
+      </c>
+      <c r="C85" s="6">
+        <v>45509</v>
+      </c>
+      <c r="D85" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E85" s="1">
+        <v>388</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="0"/>
+        <v>337.39130434782612</v>
+      </c>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="4">
+        <v>391067</v>
+      </c>
+      <c r="C86" s="6">
+        <v>45509</v>
+      </c>
+      <c r="D86" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E86" s="1">
+        <v>92</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="4">
+        <v>479352</v>
+      </c>
+      <c r="C87" s="6">
+        <v>45552</v>
+      </c>
+      <c r="D87" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E87" s="1">
+        <v>941</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="0"/>
+        <v>818.26086956521749</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="4">
+        <v>440923</v>
+      </c>
+      <c r="C88" s="6">
+        <v>45533</v>
+      </c>
+      <c r="D88" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E88" s="1">
+        <v>186</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="0"/>
+        <v>161.73913043478262</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="4">
+        <v>498747</v>
+      </c>
+      <c r="C89" s="6">
+        <v>45560</v>
+      </c>
+      <c r="D89" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1553</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="0"/>
+        <v>1350.4347826086957</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="4">
+        <v>477209</v>
+      </c>
+      <c r="C90" s="6">
+        <v>45551</v>
+      </c>
+      <c r="D90" s="4">
+        <v>310983546700003</v>
+      </c>
+      <c r="E90" s="1">
+        <v>4929</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="0"/>
+        <v>4286.086956521739</v>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="4">
+        <v>8592</v>
+      </c>
+      <c r="C91" s="6">
+        <v>45542</v>
+      </c>
+      <c r="D91" s="4">
+        <v>310072739600003</v>
+      </c>
+      <c r="E91" s="1">
+        <v>355</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="0"/>
+        <v>308.69565217391306</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" s="4">
+        <v>822</v>
+      </c>
+      <c r="C92" s="6">
+        <v>45480</v>
+      </c>
+      <c r="D92" s="4">
+        <v>310117849300003</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1034.01</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="0"/>
+        <v>899.13913043478271</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="4">
+        <v>854</v>
+      </c>
+      <c r="C93" s="6">
+        <v>45484</v>
+      </c>
+      <c r="D93" s="4">
+        <v>310117849300003</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2384</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="0"/>
+        <v>2073.0434782608695</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="4">
+        <v>1040</v>
+      </c>
+      <c r="C94" s="6">
+        <v>45517</v>
+      </c>
+      <c r="D94" s="4">
+        <v>310117849300003</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2139</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="0"/>
+        <v>1860.0000000000002</v>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="4">
+        <v>1060</v>
+      </c>
+      <c r="C95" s="6">
+        <v>45521</v>
+      </c>
+      <c r="D95" s="4">
+        <v>310117849300003</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2760</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1086</v>
+      </c>
+      <c r="C96" s="6">
+        <v>45526</v>
+      </c>
+      <c r="D96" s="4">
+        <v>310117849300003</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1605.4</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="0"/>
+        <v>1396.0000000000002</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="4">
+        <v>1087</v>
+      </c>
+      <c r="C97" s="6">
+        <v>45526</v>
+      </c>
+      <c r="D97" s="4">
+        <v>310117849300003</v>
+      </c>
+      <c r="E97" s="1">
+        <v>500</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="0"/>
+        <v>434.78260869565219</v>
+      </c>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="4">
+        <v>1185</v>
+      </c>
+      <c r="C98" s="6">
+        <v>45545</v>
+      </c>
+      <c r="D98" s="4">
+        <v>310117849300003</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2360</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="0"/>
+        <v>2052.1739130434785</v>
+      </c>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="4">
+        <v>1191</v>
+      </c>
+      <c r="C99" s="6">
+        <v>45545</v>
+      </c>
+      <c r="D99" s="4">
+        <v>310117849300003</v>
+      </c>
+      <c r="E99" s="1">
+        <v>483</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="0"/>
+        <v>420.00000000000006</v>
+      </c>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1245</v>
+      </c>
+      <c r="C100" s="6">
+        <v>45558</v>
+      </c>
+      <c r="D100" s="4">
+        <v>310117849300003</v>
+      </c>
+      <c r="E100" s="1">
+        <v>749.99</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="0"/>
+        <v>652.1652173913044</v>
+      </c>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="4">
+        <v>25523</v>
+      </c>
+      <c r="C101" s="6">
+        <v>45503</v>
+      </c>
+      <c r="D101" s="4">
+        <v>310596123800003</v>
+      </c>
+      <c r="E101" s="1">
+        <v>50</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="0"/>
+        <v>43.478260869565219</v>
+      </c>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="4">
+        <v>5459</v>
+      </c>
+      <c r="C102" s="6">
+        <v>45503</v>
+      </c>
+      <c r="D102" s="4">
+        <v>300047426410003</v>
+      </c>
+      <c r="E102" s="1">
+        <v>50</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="0"/>
+        <v>43.478260869565219</v>
+      </c>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="1">
+        <v>50</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="0"/>
+        <v>43.478260869565219</v>
+      </c>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="1">
+        <v>50</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="0"/>
+        <v>43.478260869565219</v>
+      </c>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="1">
+        <v>50</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="0"/>
+        <v>43.478260869565219</v>
+      </c>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="1">
+        <v>50</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="0"/>
+        <v>43.478260869565219</v>
+      </c>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="1">
+        <v>45</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="0"/>
+        <v>39.130434782608695</v>
+      </c>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="1">
+        <v>270</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="0"/>
+        <v>234.78260869565219</v>
+      </c>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="1">
+        <v>137</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="0"/>
+        <v>119.1304347826087</v>
+      </c>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="1">
+        <v>20</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="0"/>
+        <v>17.39130434782609</v>
+      </c>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="0"/>
+        <v>49.130434782608702</v>
+      </c>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="1">
+        <v>54</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="0"/>
+        <v>46.956521739130437</v>
+      </c>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="1">
+        <v>115</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="1">
+        <v>190</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="0"/>
+        <v>165.21739130434784</v>
+      </c>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E115" s="8">
+        <v>555.75</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" si="0"/>
+        <v>483.26086956521743</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E116" s="8">
+        <v>200</v>
+      </c>
+      <c r="F116" s="3">
+        <f t="shared" si="0"/>
+        <v>173.91304347826087</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E117" s="8">
+        <v>196</v>
+      </c>
+      <c r="F117" s="3">
+        <f t="shared" si="0"/>
+        <v>170.43478260869566</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E118" s="8">
+        <v>45</v>
+      </c>
+      <c r="F118" s="3">
+        <f t="shared" si="0"/>
+        <v>39.130434782608695</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E119" s="8">
+        <v>182</v>
+      </c>
+      <c r="F119" s="3">
+        <f t="shared" si="0"/>
+        <v>158.2608695652174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E120" s="8">
+        <v>27</v>
+      </c>
+      <c r="F120" s="3">
+        <f t="shared" si="0"/>
+        <v>23.478260869565219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E121" s="8">
+        <v>35</v>
+      </c>
+      <c r="F121" s="3">
+        <f t="shared" si="0"/>
+        <v>30.434782608695656</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E122" s="8">
+        <v>12</v>
+      </c>
+      <c r="F122" s="3">
+        <f t="shared" si="0"/>
+        <v>10.434782608695652</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E123" s="8">
+        <v>20</v>
+      </c>
+      <c r="F123" s="3">
+        <f t="shared" si="0"/>
+        <v>17.39130434782609</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E124" s="8">
+        <v>45</v>
+      </c>
+      <c r="F124" s="3">
+        <f t="shared" si="0"/>
+        <v>39.130434782608695</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E125" s="8">
+        <v>107</v>
+      </c>
+      <c r="F125" s="3">
+        <f t="shared" si="0"/>
+        <v>93.043478260869577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E126" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E127" s="8">
+        <v>237.75</v>
+      </c>
+      <c r="F127" s="3">
+        <f t="shared" si="0"/>
+        <v>206.73913043478262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B474C1-E7A6-455A-A8FA-164EFA45B92B}">
+  <dimension ref="B1:D93"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="7">
+        <v>45474</v>
+      </c>
+      <c r="D2">
+        <v>503.01</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="7">
+        <v>45475</v>
+      </c>
+      <c r="D3">
+        <v>608.32000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="7">
+        <v>45476</v>
+      </c>
+      <c r="D4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>45477</v>
+      </c>
+      <c r="D5">
+        <v>47.71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>45478</v>
+      </c>
+      <c r="D6">
+        <v>542.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>45479</v>
+      </c>
+      <c r="D7">
+        <v>117.88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>45480</v>
+      </c>
+      <c r="D8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>45481</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>45482</v>
+      </c>
+      <c r="D10">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>45483</v>
+      </c>
+      <c r="D11">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>45484</v>
+      </c>
+      <c r="D12">
+        <v>338.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <v>45487</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
+        <v>45489</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <v>45491</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <v>45493</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <v>45497</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <v>45498</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="7">
+        <v>45499</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="7">
+        <v>45501</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="7">
+        <v>45502</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="7">
+        <v>45504</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="7">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="7">
+        <v>45506</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="7">
+        <v>45507</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <v>45508</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="7">
+        <v>45509</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="7">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="7">
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="7">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="7">
+        <v>45514</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="7">
+        <v>45516</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="7">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="7">
+        <v>45518</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="7">
+        <v>45519</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="7">
+        <v>45520</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="7">
+        <v>45521</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="7">
+        <v>45522</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="7">
+        <v>45523</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="7">
+        <v>45524</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" s="7">
+        <v>45525</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="7">
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="7">
+        <v>45527</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="7">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="7">
+        <v>45529</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <v>45530</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="7">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="7">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="7">
+        <v>45533</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="7">
+        <v>45534</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="7">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="7">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="7">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="7">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="7">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="7">
+        <v>45542</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="7">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="7">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="7">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="7">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="7">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="7">
+        <v>45549</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="7">
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="7">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="7">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="7">
+        <v>45553</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="7">
+        <v>45554</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="7">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="7">
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="7">
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="7">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="7">
+        <v>45559</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="7">
+        <v>45560</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="7">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="7">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="7">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="7">
+        <v>45564</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="7">
+        <v>45565</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
